--- a/Puntos Pendientes.xlsx
+++ b/Puntos Pendientes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ing.Juan Marcelino\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ing.Juan Marcelino\Documents\Desarrollo de Software\Jdiaz0624\DSMarket.Solucion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08DA5D90-834F-448D-A3CE-704BBF7DBD57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA511A97-A4F9-435C-8ABA-D6DBA3E3695E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B417D3C8-BE99-423E-9CA8-BAFE0CA7DDA1}"/>
   </bookViews>
@@ -514,7 +514,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +609,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="3"/>

--- a/Puntos Pendientes.xlsx
+++ b/Puntos Pendientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ing.Juan Marcelino\Documents\Desarrollo de Software\Jdiaz0624\DSMarket.Solucion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA511A97-A4F9-435C-8ABA-D6DBA3E3695E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316640D7-9B3C-48BF-92F3-687FCCD76645}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B417D3C8-BE99-423E-9CA8-BAFE0CA7DDA1}"/>
   </bookViews>
@@ -150,7 +150,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +160,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -194,9 +200,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,7 +520,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,140 +534,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Puntos Pendientes.xlsx
+++ b/Puntos Pendientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ing.Juan Marcelino\Documents\Desarrollo de Software\Jdiaz0624\DSMarket.Solucion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316640D7-9B3C-48BF-92F3-687FCCD76645}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED035494-8353-4E22-A8D9-1764BB4EEB7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B417D3C8-BE99-423E-9CA8-BAFE0CA7DDA1}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +651,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2"/>

--- a/Puntos Pendientes.xlsx
+++ b/Puntos Pendientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ing.Juan Marcelino\Documents\Desarrollo de Software\Jdiaz0624\DSMarket.Solucion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED035494-8353-4E22-A8D9-1764BB4EEB7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF7DDEB-80ED-4774-87F4-B1C160D812E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B417D3C8-BE99-423E-9CA8-BAFE0CA7DDA1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Servicio</t>
   </si>
@@ -121,12 +121,6 @@
   </si>
   <si>
     <t>Clave de Seguridad</t>
-  </si>
-  <si>
-    <t>Perfiles</t>
-  </si>
-  <si>
-    <t>Permiso a Perfiles</t>
   </si>
 </sst>
 </file>
@@ -520,7 +514,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,9 +603,7 @@
       <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -625,9 +617,7 @@
       <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -661,7 +651,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2"/>

--- a/Puntos Pendientes.xlsx
+++ b/Puntos Pendientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ing.Juan Marcelino\Documents\Desarrollo de Software\Jdiaz0624\DSMarket.Solucion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF7DDEB-80ED-4774-87F4-B1C160D812E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD69E16C-63D8-4146-AA52-BCEF5171DC25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B417D3C8-BE99-423E-9CA8-BAFE0CA7DDA1}"/>
   </bookViews>
@@ -144,7 +144,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +160,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -191,12 +203,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,7 +528,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,10 +545,10 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -551,10 +565,10 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">

--- a/Puntos Pendientes.xlsx
+++ b/Puntos Pendientes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ing.Juan Marcelino\Documents\Desarrollo de Software\Jdiaz0624\DSMarket.Solucion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ing.Juan Marcelino\Source\Repos\Jdiaz0624\DSMarket.Solucion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD69E16C-63D8-4146-AA52-BCEF5171DC25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC6D15C-3002-4C13-A9ED-CCF207195A49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B417D3C8-BE99-423E-9CA8-BAFE0CA7DDA1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Servicio</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Facturacion</t>
   </si>
   <si>
-    <t>Tipo de pago</t>
-  </si>
-  <si>
     <t>Historial de Facturacion</t>
   </si>
   <si>
@@ -90,12 +87,6 @@
     <t>Monedas</t>
   </si>
   <si>
-    <t>Cuadre</t>
-  </si>
-  <si>
-    <t>Clientes</t>
-  </si>
-  <si>
     <t>Nomina</t>
   </si>
   <si>
@@ -108,19 +99,37 @@
     <t>Informacion de Empresa</t>
   </si>
   <si>
-    <t>Comprobantes</t>
-  </si>
-  <si>
-    <t>Reportes</t>
-  </si>
-  <si>
     <t>Mail</t>
   </si>
   <si>
-    <t>Usuarios</t>
-  </si>
-  <si>
     <t>Clave de Seguridad</t>
+  </si>
+  <si>
+    <t>Cuadre de caja</t>
+  </si>
+  <si>
+    <t>Comprobantes Fiscales</t>
+  </si>
+  <si>
+    <t>Reportes del Sistema</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Usuarios</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Clientes</t>
+  </si>
+  <si>
+    <t>Minimizar Facturas</t>
+  </si>
+  <si>
+    <t>Anular Facturas</t>
+  </si>
+  <si>
+    <t>Convertir cotizacion a factura</t>
+  </si>
+  <si>
+    <t>Mantenimiento Tipo de pago</t>
   </si>
 </sst>
 </file>
@@ -144,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,12 +175,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,14 +206,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,20 +527,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305A6BE0-8927-45FE-B9D4-7C7300551FB8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -548,7 +553,7 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -562,81 +567,85 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -644,9 +653,11 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -656,7 +667,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -666,7 +677,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -675,6 +686,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="89" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Puntos Pendientes.xlsx
+++ b/Puntos Pendientes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ing.Juan Marcelino\Source\Repos\Jdiaz0624\DSMarket.Solucion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan.diaz\Source\Repos\Jdiaz0624\DSMarket.Solucion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC6D15C-3002-4C13-A9ED-CCF207195A49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C105362-92BE-49ED-99D1-40E261940391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B417D3C8-BE99-423E-9CA8-BAFE0CA7DDA1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B417D3C8-BE99-423E-9CA8-BAFE0CA7DDA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Servicio</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Abrir / Cerrar</t>
-  </si>
-  <si>
-    <t>Monedas</t>
   </si>
   <si>
     <t>Nomina</t>
@@ -533,7 +530,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,33 +574,33 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -613,36 +610,33 @@
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -654,7 +648,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>

--- a/Puntos Pendientes.xlsx
+++ b/Puntos Pendientes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan.diaz\Source\Repos\Jdiaz0624\DSMarket.Solucion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ing.Juan Marcelino\Source\Repos\Jdiaz0624\DSMarket.Solucion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C105362-92BE-49ED-99D1-40E261940391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A64B93-F198-403B-BBC0-D0D5B2098B17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B417D3C8-BE99-423E-9CA8-BAFE0CA7DDA1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B417D3C8-BE99-423E-9CA8-BAFE0CA7DDA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Servicio</t>
   </si>
@@ -127,6 +127,42 @@
   </si>
   <si>
     <t>Mantenimiento Tipo de pago</t>
+  </si>
+  <si>
+    <t>Generar Backup BD</t>
+  </si>
+  <si>
+    <t>Realizar Ventas a Creditos</t>
+  </si>
+  <si>
+    <t>Reportes</t>
+  </si>
+  <si>
+    <t>Factura de Venta</t>
+  </si>
+  <si>
+    <t>FacturaVenta Punto de Venta</t>
+  </si>
+  <si>
+    <t>Reporte de Inventario</t>
+  </si>
+  <si>
+    <t>Cuadre de Caja</t>
+  </si>
+  <si>
+    <t>Reporte de Ganancia de Venta</t>
+  </si>
+  <si>
+    <t>Antiguedad de Saldo</t>
+  </si>
+  <si>
+    <t>Reporte 606</t>
+  </si>
+  <si>
+    <t>Reporte 607</t>
+  </si>
+  <si>
+    <t>Reporte 615</t>
   </si>
 </sst>
 </file>
@@ -150,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,8 +211,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -199,17 +253,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,10 +597,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,16 +611,17 @@
     <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -562,8 +633,11 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -582,8 +656,11 @@
       <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -599,11 +676,14 @@
       <c r="E3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -617,8 +697,11 @@
         <v>25</v>
       </c>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -633,8 +716,11 @@
         <v>21</v>
       </c>
       <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
@@ -643,10 +729,15 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -657,9 +748,14 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="G7" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
@@ -667,8 +763,11 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
         <v>15</v>
@@ -677,6 +776,14 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
+      <c r="G9" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Puntos Pendientes.xlsx
+++ b/Puntos Pendientes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ing.Juan Marcelino\Source\Repos\Jdiaz0624\DSMarket.Solucion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan.diaz\Source\Repos\Jdiaz0624\DSMarket.Solucion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A64B93-F198-403B-BBC0-D0D5B2098B17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B993F6-383C-491E-9F74-DB03406566E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B417D3C8-BE99-423E-9CA8-BAFE0CA7DDA1}"/>
+    <workbookView xWindow="-28920" yWindow="-1125" windowWidth="29040" windowHeight="15840" xr2:uid="{B417D3C8-BE99-423E-9CA8-BAFE0CA7DDA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -600,7 +600,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +661,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3" t="s">

--- a/Puntos Pendientes.xlsx
+++ b/Puntos Pendientes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan.diaz\Source\Repos\Jdiaz0624\DSMarket.Solucion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ing.Juan Marcelino\Source\Repos\Jdiaz0624\DSMarket.Solucion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B993F6-383C-491E-9F74-DB03406566E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E536B39-C915-438B-9BF1-5D392CA4AE84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1125" windowWidth="29040" windowHeight="15840" xr2:uid="{B417D3C8-BE99-423E-9CA8-BAFE0CA7DDA1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B417D3C8-BE99-423E-9CA8-BAFE0CA7DDA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Servicio</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Reporte 615</t>
+  </si>
+  <si>
+    <t>Productos Defectuosos</t>
   </si>
 </sst>
 </file>
@@ -268,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -280,6 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,18 +604,18 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -729,7 +733,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="2"/>
@@ -781,6 +785,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="G10" s="8" t="s">
         <v>43</v>
       </c>

--- a/Puntos Pendientes.xlsx
+++ b/Puntos Pendientes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ing.Juan Marcelino\Source\Repos\Jdiaz0624\DSMarket.Solucion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan.diaz\Source\Repos\Jdiaz0624\DSMarket.Solucion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E536B39-C915-438B-9BF1-5D392CA4AE84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E91678-DBC4-46C5-94D8-602C9E911C8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B417D3C8-BE99-423E-9CA8-BAFE0CA7DDA1}"/>
+    <workbookView xWindow="-28920" yWindow="-1125" windowWidth="29040" windowHeight="15840" xr2:uid="{B417D3C8-BE99-423E-9CA8-BAFE0CA7DDA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Servicio</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Informacion de Empresa</t>
   </si>
   <si>
-    <t>Mail</t>
-  </si>
-  <si>
     <t>Clave de Seguridad</t>
   </si>
   <si>
@@ -166,6 +163,18 @@
   </si>
   <si>
     <t>Productos Defectuosos</t>
+  </si>
+  <si>
+    <t>Impuestos del Sistema</t>
+  </si>
+  <si>
+    <t>Mantenimienro de Mail</t>
+  </si>
+  <si>
+    <t>Enviar Correos de Cuadre</t>
+  </si>
+  <si>
+    <t>Envio Correo Masivo</t>
   </si>
 </sst>
 </file>
@@ -604,7 +613,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +622,7 @@
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -638,7 +647,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -652,39 +661,39 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -698,16 +707,16 @@
         <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -716,17 +725,17 @@
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
+      <c r="E5" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -734,41 +743,45 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -778,18 +791,20 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Puntos Pendientes.xlsx
+++ b/Puntos Pendientes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan.diaz\Source\Repos\Jdiaz0624\DSMarket.Solucion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ing.Juan Marcelino\Source\Repos\Jdiaz0624\DSMarket.Solucion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E91678-DBC4-46C5-94D8-602C9E911C8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48807530-E5A8-4B66-8642-26299DF2E63F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1125" windowWidth="29040" windowHeight="15840" xr2:uid="{B417D3C8-BE99-423E-9CA8-BAFE0CA7DDA1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B417D3C8-BE99-423E-9CA8-BAFE0CA7DDA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>Servicio</t>
   </si>
@@ -175,6 +175,63 @@
   </si>
   <si>
     <t>Envio Correo Masivo</t>
+  </si>
+  <si>
+    <t>Reporte de TSS</t>
+  </si>
+  <si>
+    <t>Reporte de Productos Defectuosos</t>
+  </si>
+  <si>
+    <t>Niveles de Acceso</t>
+  </si>
+  <si>
+    <t>Permiso a usuarios</t>
+  </si>
+  <si>
+    <t>Mantenimiento de Compras</t>
+  </si>
+  <si>
+    <t>Contabilidad</t>
+  </si>
+  <si>
+    <t>Control de Apertura</t>
+  </si>
+  <si>
+    <t>Catalogo de Cuenta</t>
+  </si>
+  <si>
+    <t>Impresion de cheques</t>
+  </si>
+  <si>
+    <t>Movimientos</t>
+  </si>
+  <si>
+    <t>Movimientos Fijos</t>
+  </si>
+  <si>
+    <t>Procesar Productos Defectuosos</t>
+  </si>
+  <si>
+    <t>CXC</t>
+  </si>
+  <si>
+    <t>CXP</t>
+  </si>
+  <si>
+    <t>Balance General</t>
+  </si>
+  <si>
+    <t>Estado de Resultado</t>
+  </si>
+  <si>
+    <t>Libro Mayor</t>
+  </si>
+  <si>
+    <t>Estado de Flujo mayor de efectivo</t>
+  </si>
+  <si>
+    <t>Reporte de Impuestos y Retenciones</t>
   </si>
 </sst>
 </file>
@@ -287,12 +344,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,31 +667,32 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -646,11 +704,14 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -669,11 +730,14 @@
       <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -692,29 +756,38 @@
       <c r="F3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -728,12 +801,17 @@
       <c r="E5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -741,16 +819,21 @@
         <v>12</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -763,11 +846,14 @@
         <v>44</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -780,12 +866,17 @@
         <v>46</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
@@ -795,16 +886,84 @@
         <v>47</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="10" t="s">
         <v>42</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Puntos Pendientes.xlsx
+++ b/Puntos Pendientes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ing.Juan Marcelino\Source\Repos\Jdiaz0624\DSMarket.Solucion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan.diaz\Source\Repos\Jdiaz0624\DSMarket.Solucion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48807530-E5A8-4B66-8642-26299DF2E63F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C92D8B-DC40-4E4A-B611-591317F4B60D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B417D3C8-BE99-423E-9CA8-BAFE0CA7DDA1}"/>
+    <workbookView xWindow="-28920" yWindow="-1125" windowWidth="29040" windowHeight="15840" xr2:uid="{B417D3C8-BE99-423E-9CA8-BAFE0CA7DDA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>Servicio</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>Reporte de Impuestos y Retenciones</t>
+  </si>
+  <si>
+    <t>Imprimir Factura a Punto de Venta</t>
   </si>
 </sst>
 </file>
@@ -667,10 +670,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +684,7 @@
     <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -846,8 +849,8 @@
         <v>44</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="10" t="s">
-        <v>39</v>
+      <c r="G7" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>60</v>
@@ -867,7 +870,7 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>61</v>
@@ -887,12 +890,11 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>43</v>
       </c>
@@ -901,7 +903,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -913,7 +915,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -925,7 +927,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -936,33 +938,38 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G14" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G15" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G16" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" s="7" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="7" t="s">
         <v>66</v>
       </c>
     </row>

--- a/Puntos Pendientes.xlsx
+++ b/Puntos Pendientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan.diaz\Source\Repos\Jdiaz0624\DSMarket.Solucion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C92D8B-DC40-4E4A-B611-591317F4B60D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1DDE43-A48A-457D-A380-8111E5037F4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1125" windowWidth="29040" windowHeight="15840" xr2:uid="{B417D3C8-BE99-423E-9CA8-BAFE0CA7DDA1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>Servicio</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>Imprimir Factura a Punto de Venta</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -673,7 +676,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,7 +895,9 @@
       <c r="G9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">

--- a/Puntos Pendientes.xlsx
+++ b/Puntos Pendientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan.diaz\Source\Repos\Jdiaz0624\DSMarket.Solucion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1DDE43-A48A-457D-A380-8111E5037F4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC32F4C-346E-4871-B51B-FF129A91C5AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1125" windowWidth="29040" windowHeight="15840" xr2:uid="{B417D3C8-BE99-423E-9CA8-BAFE0CA7DDA1}"/>
   </bookViews>
@@ -676,7 +676,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,7 +880,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B9" s="3" t="s">

--- a/Puntos Pendientes.xlsx
+++ b/Puntos Pendientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan.diaz\Source\Repos\Jdiaz0624\DSMarket.Solucion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC32F4C-346E-4871-B51B-FF129A91C5AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E35EF9-8291-47D2-A2C5-4D0B2739B288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1125" windowWidth="29040" windowHeight="15840" xr2:uid="{B417D3C8-BE99-423E-9CA8-BAFE0CA7DDA1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
   <si>
     <t>Servicio</t>
   </si>
@@ -676,7 +676,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,7 +847,9 @@
         <v>13</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E7" s="3" t="s">
         <v>44</v>
       </c>

--- a/Puntos Pendientes.xlsx
+++ b/Puntos Pendientes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan.diaz\Source\Repos\Jdiaz0624\DSMarket.Solucion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ing.Juan Marcelino\Source\Repos\Jdiaz0624\DSMarket.Solucion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E35EF9-8291-47D2-A2C5-4D0B2739B288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324C25AA-237E-4495-A8F0-20CEDB4F3C03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1125" windowWidth="29040" windowHeight="15840" xr2:uid="{B417D3C8-BE99-423E-9CA8-BAFE0CA7DDA1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B417D3C8-BE99-423E-9CA8-BAFE0CA7DDA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -676,7 +676,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +727,7 @@
       <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="3" t="s">

--- a/Puntos Pendientes.xlsx
+++ b/Puntos Pendientes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ing.Juan Marcelino\Source\Repos\Jdiaz0624\DSMarket.Solucion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSP-D-024\source\repos\Jdiaz0624\DSMarket.Solucion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324C25AA-237E-4495-A8F0-20CEDB4F3C03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B9EDE2-628F-444E-8E2A-8D94F5865DFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B417D3C8-BE99-423E-9CA8-BAFE0CA7DDA1}"/>
+    <workbookView xWindow="-28920" yWindow="-1755" windowWidth="29040" windowHeight="15840" xr2:uid="{B417D3C8-BE99-423E-9CA8-BAFE0CA7DDA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>Servicio</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Generar Backup BD</t>
   </si>
   <si>
-    <t>Realizar Ventas a Creditos</t>
-  </si>
-  <si>
     <t>Reportes</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>Reporte de Ganancia de Venta</t>
   </si>
   <si>
-    <t>Antiguedad de Saldo</t>
-  </si>
-  <si>
     <t>Reporte 606</t>
   </si>
   <si>
@@ -192,52 +186,16 @@
     <t>Mantenimiento de Compras</t>
   </si>
   <si>
-    <t>Contabilidad</t>
-  </si>
-  <si>
-    <t>Control de Apertura</t>
-  </si>
-  <si>
-    <t>Catalogo de Cuenta</t>
-  </si>
-  <si>
-    <t>Impresion de cheques</t>
-  </si>
-  <si>
-    <t>Movimientos</t>
-  </si>
-  <si>
-    <t>Movimientos Fijos</t>
-  </si>
-  <si>
     <t>Procesar Productos Defectuosos</t>
   </si>
   <si>
-    <t>CXC</t>
-  </si>
-  <si>
-    <t>CXP</t>
-  </si>
-  <si>
-    <t>Balance General</t>
-  </si>
-  <si>
     <t>Estado de Resultado</t>
   </si>
   <si>
-    <t>Libro Mayor</t>
-  </si>
-  <si>
-    <t>Estado de Flujo mayor de efectivo</t>
-  </si>
-  <si>
-    <t>Reporte de Impuestos y Retenciones</t>
-  </si>
-  <si>
     <t>Imprimir Factura a Punto de Venta</t>
   </si>
   <si>
-    <t>D</t>
+    <t>Reporte de Estado de Situacion</t>
   </si>
 </sst>
 </file>
@@ -353,9 +311,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,10 +631,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,11 +646,10 @@
     <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -711,13 +668,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -737,13 +691,10 @@
         <v>25</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -763,13 +714,10 @@
         <v>21</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -784,16 +732,13 @@
         <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -805,19 +750,16 @@
         <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -825,21 +767,18 @@
         <v>12</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>52</v>
+      <c r="D6" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -848,22 +787,19 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>32</v>
+      <c r="G7" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>14</v>
@@ -871,114 +807,90 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="G8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G14" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G15" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G16" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="G13" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="7" t="s">
-        <v>65</v>
+      <c r="G17" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="G18" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Puntos Pendientes.xlsx
+++ b/Puntos Pendientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSP-D-024\source\repos\Jdiaz0624\DSMarket.Solucion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B9EDE2-628F-444E-8E2A-8D94F5865DFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA043EE-30B8-4C14-A302-04DC336F7975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1755" windowWidth="29040" windowHeight="15840" xr2:uid="{B417D3C8-BE99-423E-9CA8-BAFE0CA7DDA1}"/>
   </bookViews>
@@ -153,9 +153,6 @@
     <t>Reporte 607</t>
   </si>
   <si>
-    <t>Reporte 615</t>
-  </si>
-  <si>
     <t>Productos Defectuosos</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>Reporte de Estado de Situacion</t>
+  </si>
+  <si>
+    <t>Reporte 608</t>
   </si>
 </sst>
 </file>
@@ -634,7 +634,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +732,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>35</v>
@@ -750,10 +750,10 @@
         <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>36</v>
@@ -768,7 +768,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>31</v>
@@ -787,19 +787,19 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>14</v>
@@ -807,7 +807,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="3" t="s">
@@ -821,23 +821,23 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="9" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -848,7 +848,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -859,7 +859,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -870,12 +870,12 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">

--- a/Puntos Pendientes.xlsx
+++ b/Puntos Pendientes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSP-D-024\source\repos\Jdiaz0624\DSMarket.Solucion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ing. Juan Marcelino\source\repos\Jdiaz0624\DSMarket.Solucion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA043EE-30B8-4C14-A302-04DC336F7975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857A2FCB-FC1C-4AEB-9A20-CAD7523DD41D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1755" windowWidth="29040" windowHeight="15840" xr2:uid="{B417D3C8-BE99-423E-9CA8-BAFE0CA7DDA1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B417D3C8-BE99-423E-9CA8-BAFE0CA7DDA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -634,7 +634,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,7 +836,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="3" t="s">
         <v>54</v>
       </c>
     </row>
